--- a/config_11.2/task_server.xlsx
+++ b/config_11.2/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -3457,10 +3457,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_spend_num</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3470,6 +3466,10 @@
   </si>
   <si>
     <t>prop_3d_fish_lock</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4270,7 +4270,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
     </sheetView>
@@ -13248,9 +13248,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15835,7 +15835,7 @@
         <v>128</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="D162" s="18">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>292</v>
       </c>
       <c r="C380" s="83" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D380" s="4">
         <v>10</v>
@@ -24462,7 +24462,7 @@
         <v>310</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D410" s="4">
         <v>1</v>
@@ -24479,7 +24479,7 @@
         <v>310</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D411" s="4">
         <v>1</v>
@@ -24496,7 +24496,7 @@
         <v>311</v>
       </c>
       <c r="C412" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D412" s="4">
         <v>2</v>
@@ -24513,7 +24513,7 @@
         <v>311</v>
       </c>
       <c r="C413" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D413" s="4">
         <v>2</v>
@@ -24530,7 +24530,7 @@
         <v>312</v>
       </c>
       <c r="C414" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D414" s="4">
         <v>3</v>
@@ -24547,7 +24547,7 @@
         <v>312</v>
       </c>
       <c r="C415" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D415" s="4">
         <v>3</v>
@@ -24564,7 +24564,7 @@
         <v>313</v>
       </c>
       <c r="C416" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D416" s="4">
         <v>4</v>
@@ -24581,7 +24581,7 @@
         <v>313</v>
       </c>
       <c r="C417" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D417" s="4">
         <v>4</v>
@@ -24598,7 +24598,7 @@
         <v>314</v>
       </c>
       <c r="C418" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D418" s="4">
         <v>5</v>
@@ -24615,7 +24615,7 @@
         <v>314</v>
       </c>
       <c r="C419" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D419" s="4">
         <v>5</v>
@@ -24632,7 +24632,7 @@
         <v>315</v>
       </c>
       <c r="C420" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D420" s="4">
         <v>6</v>
@@ -24649,7 +24649,7 @@
         <v>315</v>
       </c>
       <c r="C421" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D421" s="4">
         <v>6</v>
@@ -24666,7 +24666,7 @@
         <v>316</v>
       </c>
       <c r="C422" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D422" s="4">
         <v>8</v>
@@ -24683,7 +24683,7 @@
         <v>316</v>
       </c>
       <c r="C423" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D423" s="4">
         <v>7</v>
@@ -24700,7 +24700,7 @@
         <v>317</v>
       </c>
       <c r="C424" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D424" s="4">
         <v>10</v>
@@ -24717,7 +24717,7 @@
         <v>317</v>
       </c>
       <c r="C425" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D425" s="4">
         <v>8</v>
@@ -24734,7 +24734,7 @@
         <v>318</v>
       </c>
       <c r="C426" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D426" s="4">
         <v>20</v>
@@ -24751,7 +24751,7 @@
         <v>318</v>
       </c>
       <c r="C427" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D427" s="4">
         <v>9</v>
@@ -24768,7 +24768,7 @@
         <v>319</v>
       </c>
       <c r="C428" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D428" s="4">
         <v>30</v>
@@ -24785,7 +24785,7 @@
         <v>319</v>
       </c>
       <c r="C429" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D429" s="4">
         <v>10</v>
@@ -24802,7 +24802,7 @@
         <v>320</v>
       </c>
       <c r="C430" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D430" s="4">
         <v>50</v>
@@ -24819,7 +24819,7 @@
         <v>320</v>
       </c>
       <c r="C431" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D431" s="4">
         <v>11</v>
@@ -24836,7 +24836,7 @@
         <v>321</v>
       </c>
       <c r="C432" s="113" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D432" s="4">
         <v>100</v>
@@ -24853,7 +24853,7 @@
         <v>321</v>
       </c>
       <c r="C433" s="113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D433" s="4">
         <v>12</v>
@@ -58338,16 +58338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_11.2/task_server.xlsx
+++ b/config_11.2/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="676">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3470,6 +3470,22 @@
   </si>
   <si>
     <t>buyu_3d_spend</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetByCreateTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetByCreateTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>resetByCreateTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>other|</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4268,11 +4284,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U144"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H148" sqref="H148"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4282,18 +4298,18 @@
     <col min="3" max="3" width="73.25" style="12" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="12" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="12" customWidth="1"/>
-    <col min="6" max="12" width="27.5" style="12" customWidth="1"/>
-    <col min="13" max="13" width="44.75" style="12" customWidth="1"/>
-    <col min="14" max="14" width="61" style="12" customWidth="1"/>
-    <col min="15" max="15" width="54.375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="35" style="12" customWidth="1"/>
-    <col min="17" max="17" width="108.5" style="12" customWidth="1"/>
-    <col min="18" max="18" width="28.875" style="12" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="12"/>
+    <col min="6" max="13" width="27.5" style="12" customWidth="1"/>
+    <col min="14" max="14" width="44.75" style="12" customWidth="1"/>
+    <col min="15" max="15" width="61" style="12" customWidth="1"/>
+    <col min="16" max="16" width="54.375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="35" style="12" customWidth="1"/>
+    <col min="18" max="18" width="108.5" style="12" customWidth="1"/>
+    <col min="19" max="19" width="28.875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="19.375" style="12" customWidth="1"/>
+    <col min="21" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="48" customHeight="1">
+    <row r="1" spans="1:22" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4331,21 +4347,24 @@
         <v>11</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:21" ht="43.5" customHeight="1">
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" ht="43.5" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -4379,16 +4398,16 @@
       <c r="K2" s="12">
         <v>-1</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
-    </row>
-    <row r="3" spans="1:21" ht="43.5" customHeight="1">
+      <c r="R2" s="68"/>
+      <c r="S2" s="69"/>
+    </row>
+    <row r="3" spans="1:22" ht="43.5" customHeight="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -4422,16 +4441,16 @@
       <c r="K3" s="12">
         <v>-1</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
-    </row>
-    <row r="4" spans="1:21" ht="43.5" customHeight="1">
+      <c r="R3" s="68"/>
+      <c r="S3" s="69"/>
+    </row>
+    <row r="4" spans="1:22" ht="43.5" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -4465,16 +4484,16 @@
       <c r="K4" s="12">
         <v>-1</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
-    </row>
-    <row r="5" spans="1:21" ht="43.5" customHeight="1">
+      <c r="R4" s="68"/>
+      <c r="S4" s="69"/>
+    </row>
+    <row r="5" spans="1:22" ht="43.5" customHeight="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -4508,16 +4527,16 @@
       <c r="K5" s="12">
         <v>-1</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="P5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="69"/>
-    </row>
-    <row r="6" spans="1:21" ht="25.5" customHeight="1">
+      <c r="R5" s="68"/>
+      <c r="S5" s="69"/>
+    </row>
+    <row r="6" spans="1:22" ht="25.5" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4551,14 +4570,14 @@
       <c r="K6" s="12">
         <v>-1</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="21" customHeight="1">
+    <row r="7" spans="1:22" ht="21" customHeight="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -4592,14 +4611,14 @@
       <c r="K7" s="12">
         <v>-1</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="50" t="s">
+      <c r="P7" s="50" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="21" customHeight="1">
+    <row r="8" spans="1:22" ht="21" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -4633,14 +4652,14 @@
       <c r="K8" s="12">
         <v>-1</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="P8" s="50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -4674,11 +4693,11 @@
       <c r="K9" s="12">
         <v>-1</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -4713,7 +4732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -4748,7 +4767,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -4783,7 +4802,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -4818,7 +4837,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -4853,7 +4872,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -4888,7 +4907,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -7163,7 +7182,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" s="13" customFormat="1">
+    <row r="81" spans="1:14" s="13" customFormat="1">
       <c r="A81" s="13">
         <v>81</v>
       </c>
@@ -7198,7 +7217,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="82" spans="1:13" s="13" customFormat="1">
+    <row r="82" spans="1:14" s="13" customFormat="1">
       <c r="A82" s="18">
         <v>82</v>
       </c>
@@ -7234,8 +7253,9 @@
       </c>
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
-    </row>
-    <row r="83" spans="1:13" s="13" customFormat="1">
+      <c r="N82" s="18"/>
+    </row>
+    <row r="83" spans="1:14" s="13" customFormat="1">
       <c r="A83" s="18">
         <v>83</v>
       </c>
@@ -7271,8 +7291,9 @@
       </c>
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
-    </row>
-    <row r="84" spans="1:13" s="13" customFormat="1">
+      <c r="N83" s="18"/>
+    </row>
+    <row r="84" spans="1:14" s="13" customFormat="1">
       <c r="A84" s="18">
         <v>84</v>
       </c>
@@ -7308,8 +7329,9 @@
       </c>
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
-    </row>
-    <row r="85" spans="1:13" s="13" customFormat="1">
+      <c r="N84" s="18"/>
+    </row>
+    <row r="85" spans="1:14" s="13" customFormat="1">
       <c r="A85" s="13">
         <v>85</v>
       </c>
@@ -7344,7 +7366,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:14">
       <c r="A86" s="13">
         <v>86</v>
       </c>
@@ -7379,7 +7401,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:14">
       <c r="A87" s="13">
         <v>87</v>
       </c>
@@ -7414,7 +7436,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:14">
       <c r="A88" s="13">
         <v>88</v>
       </c>
@@ -7449,7 +7471,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:14">
       <c r="A89" s="12">
         <v>89</v>
       </c>
@@ -7484,7 +7506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" s="57" customFormat="1">
+    <row r="90" spans="1:14" s="57" customFormat="1">
       <c r="A90" s="57">
         <v>90</v>
       </c>
@@ -7519,7 +7541,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" s="57" customFormat="1">
+    <row r="91" spans="1:14" s="57" customFormat="1">
       <c r="A91" s="57">
         <v>91</v>
       </c>
@@ -7554,7 +7576,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" s="57" customFormat="1">
+    <row r="92" spans="1:14" s="57" customFormat="1">
       <c r="A92" s="57">
         <v>92</v>
       </c>
@@ -7589,7 +7611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:14">
       <c r="A93" s="12">
         <v>93</v>
       </c>
@@ -7626,11 +7648,12 @@
       <c r="L93" s="74">
         <v>1</v>
       </c>
-      <c r="M93" s="38" t="s">
+      <c r="M93" s="74"/>
+      <c r="N93" s="38" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:14">
       <c r="A94" s="12">
         <v>94</v>
       </c>
@@ -7666,8 +7689,9 @@
       </c>
       <c r="L94" s="57"/>
       <c r="M94" s="57"/>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="57"/>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="12">
         <v>95</v>
       </c>
@@ -7705,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" s="61" customFormat="1">
+    <row r="96" spans="1:14" s="61" customFormat="1">
       <c r="A96" s="61">
         <v>96</v>
       </c>
@@ -7742,11 +7766,11 @@
       <c r="L96" s="61">
         <v>1</v>
       </c>
-      <c r="M96" s="73" t="s">
+      <c r="N96" s="73" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:14">
       <c r="A97" s="12">
         <v>97</v>
       </c>
@@ -7784,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:14">
       <c r="A98" s="12">
         <v>98</v>
       </c>
@@ -7822,7 +7846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:14">
       <c r="A99" s="12">
         <v>99</v>
       </c>
@@ -7860,7 +7884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:14">
       <c r="A100" s="12">
         <v>100</v>
       </c>
@@ -7898,7 +7922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" s="38" customFormat="1">
+    <row r="101" spans="1:14" s="38" customFormat="1">
       <c r="A101" s="38">
         <v>30001</v>
       </c>
@@ -7935,11 +7959,11 @@
       <c r="L101" s="38">
         <v>1</v>
       </c>
-      <c r="M101" s="38" t="s">
+      <c r="N101" s="38" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="1:13" s="38" customFormat="1">
+    <row r="102" spans="1:14" s="38" customFormat="1">
       <c r="A102" s="38">
         <v>30002</v>
       </c>
@@ -7977,7 +8001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" s="38" customFormat="1">
+    <row r="103" spans="1:14" s="38" customFormat="1">
       <c r="A103" s="38">
         <v>30003</v>
       </c>
@@ -8015,7 +8039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" s="18" customFormat="1">
+    <row r="104" spans="1:14" s="18" customFormat="1">
       <c r="A104" s="18">
         <v>30004</v>
       </c>
@@ -8053,7 +8077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" s="18" customFormat="1">
+    <row r="105" spans="1:14" s="18" customFormat="1">
       <c r="A105" s="18">
         <v>30005</v>
       </c>
@@ -8091,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" s="18" customFormat="1">
+    <row r="106" spans="1:14" s="18" customFormat="1">
       <c r="A106" s="18">
         <v>30006</v>
       </c>
@@ -8129,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" s="18" customFormat="1">
+    <row r="107" spans="1:14" s="18" customFormat="1">
       <c r="A107" s="18">
         <v>30007</v>
       </c>
@@ -8167,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" s="18" customFormat="1">
+    <row r="108" spans="1:14" s="18" customFormat="1">
       <c r="A108" s="18">
         <v>30008</v>
       </c>
@@ -8205,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:13" s="18" customFormat="1">
+    <row r="109" spans="1:14" s="18" customFormat="1">
       <c r="A109" s="18">
         <v>30009</v>
       </c>
@@ -8243,7 +8267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:13" s="18" customFormat="1">
+    <row r="110" spans="1:14" s="18" customFormat="1">
       <c r="A110" s="18">
         <v>30010</v>
       </c>
@@ -8281,7 +8305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:13" s="18" customFormat="1">
+    <row r="111" spans="1:14" s="18" customFormat="1">
       <c r="A111" s="18">
         <v>30011</v>
       </c>
@@ -8319,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:13" s="18" customFormat="1">
+    <row r="112" spans="1:14" s="18" customFormat="1">
       <c r="A112" s="18">
         <v>30012</v>
       </c>
@@ -8965,7 +8989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="84" customFormat="1">
+    <row r="129" spans="1:13" s="84" customFormat="1">
       <c r="A129" s="84">
         <v>30029</v>
       </c>
@@ -9003,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="84" customFormat="1">
+    <row r="130" spans="1:13" s="84" customFormat="1">
       <c r="A130" s="84">
         <v>30030</v>
       </c>
@@ -9041,7 +9065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="84" customFormat="1">
+    <row r="131" spans="1:13" s="84" customFormat="1">
       <c r="A131" s="84">
         <v>30031</v>
       </c>
@@ -9079,7 +9103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="84" customFormat="1">
+    <row r="132" spans="1:13" s="84" customFormat="1">
       <c r="A132" s="84">
         <v>30032</v>
       </c>
@@ -9117,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:13">
       <c r="A133" s="84">
         <v>30033</v>
       </c>
@@ -9155,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:13">
       <c r="A134" s="84">
         <v>30034</v>
       </c>
@@ -9193,7 +9217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:13">
       <c r="A135" s="84">
         <v>30035</v>
       </c>
@@ -9231,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="106" customFormat="1">
+    <row r="136" spans="1:13" s="106" customFormat="1">
       <c r="A136" s="106">
         <v>30036</v>
       </c>
@@ -9268,8 +9292,11 @@
       <c r="L136" s="106">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" s="106" customFormat="1">
+      <c r="M136" s="106" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" s="106" customFormat="1">
       <c r="A137" s="106">
         <v>30037</v>
       </c>
@@ -9306,8 +9333,11 @@
       <c r="L137" s="106">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" s="106" customFormat="1">
+      <c r="M137" s="106" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" s="106" customFormat="1">
       <c r="A138" s="106">
         <v>30038</v>
       </c>
@@ -9344,8 +9374,11 @@
       <c r="L138" s="106">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" s="106" customFormat="1">
+      <c r="M138" s="106" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" s="106" customFormat="1">
       <c r="A139" s="106">
         <v>30039</v>
       </c>
@@ -9382,8 +9415,11 @@
       <c r="L139" s="106">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" s="106" customFormat="1">
+      <c r="M139" s="106" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" s="106" customFormat="1">
       <c r="A140" s="106">
         <v>30040</v>
       </c>
@@ -9420,8 +9456,11 @@
       <c r="L140" s="106">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140" s="106" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="12">
         <v>30041</v>
       </c>
@@ -9459,7 +9498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:13">
       <c r="A142" s="12">
         <v>30042</v>
       </c>
@@ -9496,8 +9535,11 @@
       <c r="L142" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142" s="105" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="12">
         <v>30043</v>
       </c>
@@ -9534,8 +9576,11 @@
       <c r="L143" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143" s="105" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="12">
         <v>30044</v>
       </c>
@@ -13248,7 +13293,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
     </sheetView>
@@ -58338,16 +58383,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
